--- a/data/trans_orig/P1424_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE20487-1C58-4EC9-8F76-C9C60BE5F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA9734A-0856-45CC-B228-90B0ED686D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74FB348A-255B-4DF4-A6E4-30A1C941292F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C92CCCB-8206-4C46-B882-18EF0850C254}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,16 +195,19 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>3,69%</t>
@@ -213,493 +216,484 @@
     <t>2,86%</t>
   </si>
   <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,65%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5EC3A9-9A86-49C0-AFBA-871A19A8A159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CBD7AD-D3F5-4BE2-B0E4-90DD62150DD7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,10 +1542,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1560,13 +1554,13 @@
         <v>62040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -1575,13 +1569,13 @@
         <v>76205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1590,13 @@
         <v>1008266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
@@ -1611,13 +1605,13 @@
         <v>980873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1857</v>
@@ -1626,13 +1620,13 @@
         <v>1989139</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,7 +1682,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1700,13 +1694,13 @@
         <v>13719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -1715,13 +1709,13 @@
         <v>50670</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -1730,13 +1724,13 @@
         <v>64389</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1745,13 @@
         <v>745833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>689</v>
@@ -1766,13 +1760,13 @@
         <v>734341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1372</v>
@@ -1781,13 +1775,13 @@
         <v>1480174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,7 +1837,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1855,13 +1849,13 @@
         <v>25567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -1870,13 +1864,13 @@
         <v>64960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -1885,13 +1879,13 @@
         <v>90527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1900,13 @@
         <v>912000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>902</v>
@@ -1921,13 +1915,13 @@
         <v>978819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1810</v>
@@ -1936,13 +1930,13 @@
         <v>1890819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2004,13 @@
         <v>64676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>214</v>
@@ -2025,13 +2019,13 @@
         <v>232305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>276</v>
@@ -2040,13 +2034,13 @@
         <v>296981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2055,13 @@
         <v>3329674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3124</v>
@@ -2076,13 +2070,13 @@
         <v>3312237</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6293</v>
@@ -2091,13 +2085,13 @@
         <v>6641911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,7 +2147,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFFE120-A1E9-45B0-8262-7CF3716FE01D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA09CD-52B4-48B8-A516-7F77B0F17A53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2191,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2298,13 +2292,13 @@
         <v>6516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2313,13 +2307,13 @@
         <v>7460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2328,13 +2322,13 @@
         <v>13975</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2343,13 @@
         <v>95466</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -2364,13 +2358,13 @@
         <v>123273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>338</v>
@@ -2379,13 +2373,13 @@
         <v>218740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2447,13 @@
         <v>34172</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -2468,13 +2462,13 @@
         <v>49337</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2483,13 +2477,13 @@
         <v>83509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2498,13 @@
         <v>515651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>907</v>
@@ -2519,13 +2513,13 @@
         <v>543218</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1484</v>
@@ -2534,13 +2528,13 @@
         <v>1058869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2602,13 @@
         <v>27065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -2623,13 +2617,13 @@
         <v>84048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -2638,13 +2632,13 @@
         <v>111113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2653,13 @@
         <v>1012183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>1388</v>
@@ -2674,13 +2668,13 @@
         <v>973904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>2322</v>
@@ -2689,13 +2683,13 @@
         <v>1986087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2745,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2763,13 +2757,13 @@
         <v>29567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -2778,13 +2772,13 @@
         <v>87199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -2793,13 +2787,13 @@
         <v>116766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2808,13 @@
         <v>694114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>928</v>
@@ -2829,13 +2823,13 @@
         <v>786468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -2844,13 +2838,13 @@
         <v>1480582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2900,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2918,13 +2912,13 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -2933,13 +2927,13 @@
         <v>113764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>212</v>
@@ -2948,13 +2942,13 @@
         <v>163717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2963,13 @@
         <v>915449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>1401</v>
@@ -2984,28 +2978,28 @@
         <v>1032408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>2353</v>
       </c>
       <c r="N17" s="7">
-        <v>1947857</v>
+        <v>1947858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3041,7 @@
         <v>2565</v>
       </c>
       <c r="N18" s="7">
-        <v>2111574</v>
+        <v>2111575</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3073,13 +3067,13 @@
         <v>147274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>505</v>
@@ -3088,28 +3082,28 @@
         <v>341807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>658</v>
       </c>
       <c r="N19" s="7">
-        <v>489081</v>
+        <v>489082</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3118,13 @@
         <v>3232863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>4852</v>
@@ -3139,13 +3133,13 @@
         <v>3459271</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>8070</v>
@@ -3157,10 +3151,10 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3196,7 @@
         <v>8728</v>
       </c>
       <c r="N21" s="7">
-        <v>7181215</v>
+        <v>7181216</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3216,7 +3210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1424_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA9734A-0856-45CC-B228-90B0ED686D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{709CE70B-C09F-4430-BE40-4FE4D594E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C92CCCB-8206-4C46-B882-18EF0850C254}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6226BD7-E4D3-4090-AD97-C5A7F4195424}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="217">
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,25 +78,25 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>7,05%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +105,7 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>92,98%</t>
+    <t>92,95%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -114,97 +114,97 @@
     <t>88,85%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>7,62%</t>
@@ -213,19 +213,19 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>94,05%</t>
@@ -234,73 +234,73 @@
     <t>92,38%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,150 +309,150 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
     <t>90,64%</t>
   </si>
   <si>
@@ -570,9 +570,6 @@
     <t>95,57%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
     <t>2,62%</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
   </si>
   <si>
     <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
   </si>
   <si>
     <t>93,97%</t>
@@ -1105,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CBD7AD-D3F5-4BE2-B0E4-90DD62150DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99073B93-CC0E-4402-A6E7-594FD6BB5675}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,10 +2016,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>276</v>
@@ -2034,13 +2028,13 @@
         <v>296981</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2049,13 @@
         <v>3329674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3124</v>
@@ -2070,13 +2064,13 @@
         <v>3312237</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>6293</v>
@@ -2085,13 +2079,13 @@
         <v>6641911</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2141,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA09CD-52B4-48B8-A516-7F77B0F17A53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDBADC0-BC55-47F9-AD4D-A7ABC29ECB43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,7 +2179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2292,13 +2286,13 @@
         <v>6516</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2307,13 +2301,13 @@
         <v>7460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2322,13 +2316,13 @@
         <v>13975</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2337,13 @@
         <v>95466</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -2358,7 +2352,7 @@
         <v>123273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>138</v>
@@ -2757,13 +2751,13 @@
         <v>29567</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -2772,13 +2766,13 @@
         <v>87199</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -2790,10 +2784,10 @@
         <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2802,13 @@
         <v>694114</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>928</v>
@@ -2823,13 +2817,13 @@
         <v>786468</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1573</v>
@@ -2841,10 +2835,10 @@
         <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,10 +2906,10 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>146</v>
@@ -2927,13 +2921,13 @@
         <v>113764</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>212</v>
@@ -2942,13 +2936,13 @@
         <v>163717</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2957,13 @@
         <v>915449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>1401</v>
@@ -2978,13 +2972,13 @@
         <v>1032408</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>2353</v>
@@ -2993,13 +2987,13 @@
         <v>1947858</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,10 +3064,10 @@
         <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>505</v>
@@ -3082,13 +3076,13 @@
         <v>341807</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>658</v>
@@ -3103,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +3115,10 @@
         <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>4852</v>
@@ -3133,13 +3127,13 @@
         <v>3459271</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>8070</v>
@@ -3151,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>101</v>
@@ -3210,7 +3204,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
